--- a/data/trans_orig/P32A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P32A-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>6682</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2716</v>
+        <v>2797</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14375</v>
+        <v>14345</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01418695886106814</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005765832743582566</v>
+        <v>0.005938787079873175</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03051993734968975</v>
+        <v>0.03045598945548937</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4757</v>
+        <v>4590</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005513405611783708</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02839125924905187</v>
+        <v>0.02739612596922609</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -786,19 +786,19 @@
         <v>7606</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3411</v>
+        <v>3644</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15734</v>
+        <v>16272</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0119112194144409</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005341504491334859</v>
+        <v>0.005707307704723484</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02464147378548228</v>
+        <v>0.02548348291946074</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>464311</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>456618</v>
+        <v>456648</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>468277</v>
+        <v>468196</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9858130411389319</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9694800626503104</v>
+        <v>0.9695440105445106</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9942341672564174</v>
+        <v>0.9940612129201267</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>164</v>
@@ -836,7 +836,7 @@
         <v>166611</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>162778</v>
+        <v>162945</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>167535</v>
@@ -845,7 +845,7 @@
         <v>0.9944865943882163</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9716087407509482</v>
+        <v>0.972603874030774</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -857,19 +857,19 @@
         <v>630922</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>622794</v>
+        <v>622256</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>635117</v>
+        <v>634884</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.988088780585559</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9753585262145177</v>
+        <v>0.9745165170805392</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9946584955086666</v>
+        <v>0.9942926922952765</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>11566</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5897</v>
+        <v>6160</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20232</v>
+        <v>19449</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01091748908902153</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005566087504485531</v>
+        <v>0.005814361107807237</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01909750400663687</v>
+        <v>0.01835827054116051</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5096</v>
+        <v>5038</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.001909832629143801</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.009563332691137702</v>
+        <v>0.009453941932889077</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>13</v>
@@ -1003,19 +1003,19 @@
         <v>12584</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6501</v>
+        <v>6751</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>20717</v>
+        <v>21102</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.007903051734558278</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004082678996532346</v>
+        <v>0.00424007726113746</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01301122699148996</v>
+        <v>0.01325293972605114</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1047838</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1039172</v>
+        <v>1039955</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1053507</v>
+        <v>1053244</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9890825109109784</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9809024959933632</v>
+        <v>0.9816417294588394</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9944339124955145</v>
+        <v>0.9941856388921928</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>522</v>
@@ -1053,7 +1053,7 @@
         <v>531835</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>527757</v>
+        <v>527815</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>532853</v>
@@ -1062,7 +1062,7 @@
         <v>0.9980901673708562</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9904366673088624</v>
+        <v>0.990546058067111</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1074,19 +1074,19 @@
         <v>1579674</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1571541</v>
+        <v>1571156</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1585757</v>
+        <v>1585507</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9920969482654417</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9869887730085102</v>
+        <v>0.9867470602739489</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9959173210034679</v>
+        <v>0.9957599227388625</v>
       </c>
     </row>
     <row r="9">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7078</v>
+        <v>5819</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005251472677816656</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02019334320886997</v>
+        <v>0.01660147963214253</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4549</v>
+        <v>5051</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.005269831600379749</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02355675514536357</v>
+        <v>0.02615406122182096</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -1220,19 +1220,19 @@
         <v>2858</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8222</v>
+        <v>7686</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.005257994368907458</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001570920746142984</v>
+        <v>0.001553182961122953</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0151249251283916</v>
+        <v>0.01413781448998408</v>
       </c>
     </row>
     <row r="11">
@@ -1249,7 +1249,7 @@
         <v>348666</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>343429</v>
+        <v>344688</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>350507</v>
@@ -1258,7 +1258,7 @@
         <v>0.9947485273221833</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9798066567911315</v>
+        <v>0.9833985203678572</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1270,7 +1270,7 @@
         <v>192093</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>188562</v>
+        <v>188060</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>193111</v>
@@ -1279,7 +1279,7 @@
         <v>0.9947301683996203</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9764432448546368</v>
+        <v>0.973845938778179</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1291,19 +1291,19 @@
         <v>540759</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>535395</v>
+        <v>535931</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>542763</v>
+        <v>542773</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9947420056310925</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9848750748716075</v>
+        <v>0.985862185510015</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9984290792538569</v>
+        <v>0.9984468170388771</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>20089</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12327</v>
+        <v>13155</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>30191</v>
+        <v>31348</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01068032722022275</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006553849995549054</v>
+        <v>0.006994169884733087</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01605121709184693</v>
+        <v>0.01666670361010787</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -1416,19 +1416,19 @@
         <v>2959</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>922</v>
+        <v>351</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8114</v>
+        <v>8083</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.003311710099870096</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.001031926920405972</v>
+        <v>0.0003932406261777745</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.009080710637896481</v>
+        <v>0.009046118031454085</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>23</v>
@@ -1437,19 +1437,19 @@
         <v>23048</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>14843</v>
+        <v>15207</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>34336</v>
+        <v>34834</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.00830725709611568</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.00534995931607798</v>
+        <v>0.005481135541557372</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01237587289231625</v>
+        <v>0.01255567199229491</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1860815</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1850713</v>
+        <v>1849556</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1868577</v>
+        <v>1867749</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9893196727797773</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9839487829081536</v>
+        <v>0.9833332963898922</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.993446150004451</v>
+        <v>0.993005830115267</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>870</v>
@@ -1487,19 +1487,19 @@
         <v>890540</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>885385</v>
+        <v>885416</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>892577</v>
+        <v>893148</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9966882899001299</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9909192893621036</v>
+        <v>0.9909538819685459</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9989680730795941</v>
+        <v>0.999606759373823</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2696</v>
@@ -1508,19 +1508,19 @@
         <v>2751355</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2740067</v>
+        <v>2739569</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2759560</v>
+        <v>2759196</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9916927429038843</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9876241271076841</v>
+        <v>0.9874443280077053</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9946500406839222</v>
+        <v>0.9945188644584428</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>15939</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8591</v>
+        <v>8907</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27220</v>
+        <v>27171</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03127554857649309</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01685774435284912</v>
+        <v>0.01747670514600372</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05341066816800404</v>
+        <v>0.05331439755251721</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -1885,19 +1885,19 @@
         <v>15939</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8845</v>
+        <v>8870</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>26716</v>
+        <v>28910</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02154465036864364</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01195609937166068</v>
+        <v>0.01198883773692206</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03611196171523365</v>
+        <v>0.03907688188654102</v>
       </c>
     </row>
     <row r="5">
@@ -1914,19 +1914,19 @@
         <v>493695</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>482414</v>
+        <v>482463</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>501043</v>
+        <v>500727</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9687244514235069</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9465893318319966</v>
+        <v>0.9466856024474829</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.983142255647151</v>
+        <v>0.9825232948539963</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>213</v>
@@ -1948,19 +1948,19 @@
         <v>723877</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>713100</v>
+        <v>710906</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>730971</v>
+        <v>730946</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9784553496313564</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9638880382847664</v>
+        <v>0.9609231181134589</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9880439006283394</v>
+        <v>0.9880111622630777</v>
       </c>
     </row>
     <row r="6">
@@ -2052,19 +2052,19 @@
         <v>33848</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22481</v>
+        <v>22843</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>47335</v>
+        <v>47294</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02835128702665104</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01882973229818047</v>
+        <v>0.01913368701710061</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03964802907729121</v>
+        <v>0.03961366607705748</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -2073,19 +2073,19 @@
         <v>8100</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4005</v>
+        <v>3890</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17740</v>
+        <v>16827</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01368476729265615</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006765165691787868</v>
+        <v>0.006572394836454415</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02996991185671925</v>
+        <v>0.02842790336943011</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>39</v>
@@ -2094,19 +2094,19 @@
         <v>41949</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>30793</v>
+        <v>30157</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>58340</v>
+        <v>58029</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02348990385471527</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01724330748499784</v>
+        <v>0.01688691568128083</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03266867518113982</v>
+        <v>0.03249447940597903</v>
       </c>
     </row>
     <row r="8">
@@ -2123,19 +2123,19 @@
         <v>1160041</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1146554</v>
+        <v>1146595</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1171408</v>
+        <v>1171046</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.971648712973349</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9603519709227103</v>
+        <v>0.9603863339229426</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9811702677018198</v>
+        <v>0.9808663129828994</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>539</v>
@@ -2144,19 +2144,19 @@
         <v>583830</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>574190</v>
+        <v>575103</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>587925</v>
+        <v>588040</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9863152327073439</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9700300881432802</v>
+        <v>0.9715720966305698</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9932348343082121</v>
+        <v>0.9934276051635456</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1633</v>
@@ -2165,19 +2165,19 @@
         <v>1743870</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1727479</v>
+        <v>1727790</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1755026</v>
+        <v>1755662</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9765100961452847</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9673313248188604</v>
+        <v>0.9675055205940212</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9827566925150022</v>
+        <v>0.9831130843187192</v>
       </c>
     </row>
     <row r="9">
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6065</v>
+        <v>6098</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005743113025456589</v>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01859237002758908</v>
+        <v>0.01869536253577836</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4118</v>
+        <v>4510</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.004014616046488319</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01852180899069554</v>
+        <v>0.02028428487331174</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -2311,19 +2311,19 @@
         <v>2766</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7564</v>
+        <v>7701</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.005042505453490767</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001531364803230537</v>
+        <v>0.001533370349247372</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01378878743610713</v>
+        <v>0.01403843807691439</v>
       </c>
     </row>
     <row r="11">
@@ -2340,7 +2340,7 @@
         <v>324323</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>320131</v>
+        <v>320098</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>326196</v>
@@ -2349,7 +2349,7 @@
         <v>0.9942568869745434</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9814076299724104</v>
+        <v>0.9813046374642207</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -2361,7 +2361,7 @@
         <v>221441</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>218216</v>
+        <v>217824</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>222334</v>
@@ -2370,7 +2370,7 @@
         <v>0.9959853839535117</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9814781910093051</v>
+        <v>0.9797157151266882</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -2382,19 +2382,19 @@
         <v>545764</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>540966</v>
+        <v>540829</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>547690</v>
+        <v>547689</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9949574945465093</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9862112125638929</v>
+        <v>0.9859615619230855</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9984686351967695</v>
+        <v>0.9984666296507526</v>
       </c>
     </row>
     <row r="12">
@@ -2486,19 +2486,19 @@
         <v>51661</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>38089</v>
+        <v>39518</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>68258</v>
+        <v>70314</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02545217272195976</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01876544230287982</v>
+        <v>0.01946975847879181</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03362909371420062</v>
+        <v>0.03464220887425058</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -2507,19 +2507,19 @@
         <v>8993</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3958</v>
+        <v>4152</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17886</v>
+        <v>17813</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.008610313003841706</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.00378960129705333</v>
+        <v>0.0039753201607172</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01712486952277045</v>
+        <v>0.01705469296001155</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>56</v>
@@ -2528,19 +2528,19 @@
         <v>60654</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>43683</v>
+        <v>44746</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>77892</v>
+        <v>77794</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01973015733662398</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01420986569667392</v>
+        <v>0.01455547671305095</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02533765895338564</v>
+        <v>0.0253058047936329</v>
       </c>
     </row>
     <row r="14">
@@ -2557,19 +2557,19 @@
         <v>1978057</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1961460</v>
+        <v>1959404</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1991629</v>
+        <v>1990200</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9745478272780402</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.966370906285799</v>
+        <v>0.9653577911257494</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9812345576971202</v>
+        <v>0.9805302415212082</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>951</v>
@@ -2578,19 +2578,19 @@
         <v>1035453</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1026560</v>
+        <v>1026633</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1040488</v>
+        <v>1040294</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9913896869961583</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9828751304772306</v>
+        <v>0.9829453070399884</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9962103987029467</v>
+        <v>0.9960246798392828</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2811</v>
@@ -2599,19 +2599,19 @@
         <v>3013510</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2996272</v>
+        <v>2996370</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3030481</v>
+        <v>3029418</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.980269842663376</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9746623410466143</v>
+        <v>0.974694195206367</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9857901343033261</v>
+        <v>0.985444523286949</v>
       </c>
     </row>
     <row r="15">
@@ -2942,19 +2942,19 @@
         <v>14611</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8225</v>
+        <v>8623</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23536</v>
+        <v>23770</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04069727286718818</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0229082571621257</v>
+        <v>0.02401824985597417</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06555527891038652</v>
+        <v>0.06620658305455678</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7592</v>
+        <v>8101</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01715061553352744</v>
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05666529000457739</v>
+        <v>0.06046693549847779</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -2984,19 +2984,19 @@
         <v>16909</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9802</v>
+        <v>9518</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>26141</v>
+        <v>27317</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03429817520936225</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01988213075293997</v>
+        <v>0.0193055213690316</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0530235307450961</v>
+        <v>0.05540941293612625</v>
       </c>
     </row>
     <row r="5">
@@ -3013,19 +3013,19 @@
         <v>344411</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>335486</v>
+        <v>335252</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>350797</v>
+        <v>350399</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9593027271328118</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9344447210896137</v>
+        <v>0.9337934169454433</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9770917428378744</v>
+        <v>0.9759817501440261</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>124</v>
@@ -3034,7 +3034,7 @@
         <v>131681</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>126387</v>
+        <v>125878</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>133979</v>
@@ -3043,7 +3043,7 @@
         <v>0.9828493844664725</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9433347099954195</v>
+        <v>0.9395330645015223</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -3055,19 +3055,19 @@
         <v>476092</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>466860</v>
+        <v>465684</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>483199</v>
+        <v>483483</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9657018247906377</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9469764692549041</v>
+        <v>0.9445905870638739</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.98011786924706</v>
+        <v>0.9806944786309685</v>
       </c>
     </row>
     <row r="6">
@@ -3159,19 +3159,19 @@
         <v>23372</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14751</v>
+        <v>14478</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34125</v>
+        <v>36255</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01863610993927428</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01176214561468943</v>
+        <v>0.01154443288600177</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02721058215652374</v>
+        <v>0.02890936474808327</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -3180,19 +3180,19 @@
         <v>5195</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1899</v>
+        <v>2024</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11520</v>
+        <v>11031</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.007119908009139993</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002602810917465389</v>
+        <v>0.002774327940337291</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01578978950847864</v>
+        <v>0.01511993249842336</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>26</v>
@@ -3201,19 +3201,19 @@
         <v>28566</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>19866</v>
+        <v>17876</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>41466</v>
+        <v>41099</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0144005582651696</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01001490092572401</v>
+        <v>0.009011566244884636</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02090362486676387</v>
+        <v>0.02071857672760456</v>
       </c>
     </row>
     <row r="8">
@@ -3230,19 +3230,19 @@
         <v>1230726</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1219973</v>
+        <v>1217843</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1239347</v>
+        <v>1239620</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9813638900607257</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9727894178434763</v>
+        <v>0.9710906352519167</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9882378543853106</v>
+        <v>0.9884555671139983</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>698</v>
@@ -3251,19 +3251,19 @@
         <v>724383</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>718058</v>
+        <v>718547</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>727679</v>
+        <v>727554</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.99288009199086</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.984210210491521</v>
+        <v>0.9848800675015769</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9973971890825346</v>
+        <v>0.9972256720596627</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1858</v>
@@ -3272,19 +3272,19 @@
         <v>1955110</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1942210</v>
+        <v>1942577</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1963810</v>
+        <v>1965800</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9855994417348304</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9790963751332362</v>
+        <v>0.9792814232723954</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.989985099074276</v>
+        <v>0.9909884337551154</v>
       </c>
     </row>
     <row r="9">
@@ -3379,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6942</v>
+        <v>6275</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.00537411243435221</v>
@@ -3388,7 +3388,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01838707070075804</v>
+        <v>0.01662052464146691</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -3397,19 +3397,19 @@
         <v>7991</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3462</v>
+        <v>3069</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15861</v>
+        <v>14946</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02856935289985971</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01237770533991736</v>
+        <v>0.01097066073518981</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05670568995036262</v>
+        <v>0.05343425020917127</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -3418,19 +3418,19 @@
         <v>10020</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4823</v>
+        <v>4988</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>18860</v>
+        <v>19225</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01524581590590543</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007339016399197524</v>
+        <v>0.007588825613447024</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0286959418706104</v>
+        <v>0.02925163854433344</v>
       </c>
     </row>
     <row r="11">
@@ -3447,7 +3447,7 @@
         <v>375494</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>370581</v>
+        <v>371248</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>377523</v>
@@ -3456,7 +3456,7 @@
         <v>0.9946258875656477</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.981612929299242</v>
+        <v>0.9833794753585332</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -3468,19 +3468,19 @@
         <v>271724</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>263854</v>
+        <v>264769</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>276253</v>
+        <v>276646</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9714306471001403</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9432943100496373</v>
+        <v>0.9465657497908287</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9876222946600827</v>
+        <v>0.9890293392648102</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>600</v>
@@ -3489,19 +3489,19 @@
         <v>647217</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>638377</v>
+        <v>638012</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>652414</v>
+        <v>652249</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9847541840940945</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9713040581293896</v>
+        <v>0.9707483614556666</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9926609836008025</v>
+        <v>0.9924111743865529</v>
       </c>
     </row>
     <row r="12">
@@ -3593,19 +3593,19 @@
         <v>40012</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>27614</v>
+        <v>27887</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>53785</v>
+        <v>53859</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0200998268515115</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01387186084816222</v>
+        <v>0.01400892314853335</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02701899953137173</v>
+        <v>0.02705604405298642</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>14</v>
@@ -3614,19 +3614,19 @@
         <v>15484</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8848</v>
+        <v>8404</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>26381</v>
+        <v>24787</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01354325818454873</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.00773934561943127</v>
+        <v>0.007350916276173553</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0230748360931666</v>
+        <v>0.02168096394119288</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>51</v>
@@ -3635,19 +3635,19 @@
         <v>55495</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>42037</v>
+        <v>41735</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>73142</v>
+        <v>71492</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01770794971101706</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01341357871038951</v>
+        <v>0.01331725889711716</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02333893527735481</v>
+        <v>0.02281229280287717</v>
       </c>
     </row>
     <row r="14">
@@ -3664,19 +3664,19 @@
         <v>1950631</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1936858</v>
+        <v>1936784</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1963029</v>
+        <v>1962756</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9799001731484885</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9729810004686283</v>
+        <v>0.9729439559470137</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9861281391518384</v>
+        <v>0.9859910768514666</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1079</v>
@@ -3685,19 +3685,19 @@
         <v>1127787</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1116890</v>
+        <v>1118484</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1134423</v>
+        <v>1134867</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9864567418154513</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9769251639068334</v>
+        <v>0.9783190360588072</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9922606543805688</v>
+        <v>0.9926490837238264</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2926</v>
@@ -3706,19 +3706,19 @@
         <v>3078419</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3060772</v>
+        <v>3062422</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3091877</v>
+        <v>3092179</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9822920502889829</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.976661064722645</v>
+        <v>0.9771877071971229</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9865864212896103</v>
+        <v>0.9866827411028829</v>
       </c>
     </row>
     <row r="15">
@@ -4049,19 +4049,19 @@
         <v>11076</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6248</v>
+        <v>6304</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17761</v>
+        <v>17736</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.04297737968326767</v>
+        <v>0.04297737968326768</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02424132857360324</v>
+        <v>0.02445864224570416</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06891363086091197</v>
+        <v>0.06881538523768362</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -4073,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3047</v>
+        <v>3519</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01185005586813159</v>
@@ -4082,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04066458464297482</v>
+        <v>0.04696639347683637</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>17</v>
@@ -4091,19 +4091,19 @@
         <v>11964</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7292</v>
+        <v>7140</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18666</v>
+        <v>18894</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03596579613660449</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02191995587454482</v>
+        <v>0.02146354467777807</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05611242949193177</v>
+        <v>0.05679544330759119</v>
       </c>
     </row>
     <row r="5">
@@ -4120,19 +4120,19 @@
         <v>246651</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>239966</v>
+        <v>239991</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>251479</v>
+        <v>251423</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9570226203167322</v>
+        <v>0.9570226203167324</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.931086369139088</v>
+        <v>0.9311846147623164</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9757586714263968</v>
+        <v>0.9755413577542961</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>121</v>
@@ -4141,16 +4141,16 @@
         <v>74045</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>71886</v>
+        <v>71414</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>74933</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9881499441318685</v>
+        <v>0.9881499441318683</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9593354153570246</v>
+        <v>0.9530336065231636</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -4162,19 +4162,19 @@
         <v>320697</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>313995</v>
+        <v>313767</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>325369</v>
+        <v>325521</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9640342038633956</v>
+        <v>0.9640342038633954</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9438875705080683</v>
+        <v>0.9432045566924089</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9780800441254552</v>
+        <v>0.9785364553222219</v>
       </c>
     </row>
     <row r="6">
@@ -4266,19 +4266,19 @@
         <v>11636</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5921</v>
+        <v>5838</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20296</v>
+        <v>19898</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01118153041743273</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005689713962442808</v>
+        <v>0.005610418115305595</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01950295082722422</v>
+        <v>0.01912119421417309</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -4287,19 +4287,19 @@
         <v>14099</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7432</v>
+        <v>7367</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>25390</v>
+        <v>27374</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02539175273722448</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01338503519639448</v>
+        <v>0.01326730471155089</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04572636398359362</v>
+        <v>0.04930015070647153</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>26</v>
@@ -4308,19 +4308,19 @@
         <v>25735</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>17366</v>
+        <v>16723</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>40030</v>
+        <v>38000</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01612561858089303</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01088145189014182</v>
+        <v>0.010478628118927</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02508277384934442</v>
+        <v>0.02381114944936543</v>
       </c>
     </row>
     <row r="8">
@@ -4337,19 +4337,19 @@
         <v>1029011</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1020351</v>
+        <v>1020749</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1034726</v>
+        <v>1034809</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9888184695825674</v>
+        <v>0.9888184695825672</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9804970491727758</v>
+        <v>0.9808788057858272</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9943102860375572</v>
+        <v>0.9943895818846946</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>701</v>
@@ -4358,19 +4358,19 @@
         <v>541154</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>529863</v>
+        <v>527879</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>547821</v>
+        <v>547886</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9746082472627755</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9542736360164065</v>
+        <v>0.9506998492935285</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9866149648036056</v>
+        <v>0.9867326952884491</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1602</v>
@@ -4379,19 +4379,19 @@
         <v>1570165</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1555870</v>
+        <v>1557900</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1578534</v>
+        <v>1579177</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.983874381419107</v>
+        <v>0.9838743814191069</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9749172261506556</v>
+        <v>0.9761888505506346</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9891185481098583</v>
+        <v>0.989521371881073</v>
       </c>
     </row>
     <row r="9">
@@ -4483,19 +4483,19 @@
         <v>7723</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3737</v>
+        <v>3950</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13849</v>
+        <v>14629</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02106133074974221</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01018967811510679</v>
+        <v>0.01077308510893592</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03776648589420589</v>
+        <v>0.03989461736551202</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -4504,19 +4504,19 @@
         <v>4388</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1918</v>
+        <v>1651</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8696</v>
+        <v>9008</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01656709972131852</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007239733237016093</v>
+        <v>0.00623463847254275</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03283233880634594</v>
+        <v>0.03401052627308244</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>15</v>
@@ -4525,19 +4525,19 @@
         <v>12111</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6698</v>
+        <v>7073</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>18867</v>
+        <v>19461</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.01917651630922746</v>
+        <v>0.01917651630922745</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01060529299095454</v>
+        <v>0.01119911597114476</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02987399400396631</v>
+        <v>0.03081392214759729</v>
       </c>
     </row>
     <row r="11">
@@ -4554,19 +4554,19 @@
         <v>358973</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>352847</v>
+        <v>352067</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>362959</v>
+        <v>362746</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9789386692502577</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9622335141057941</v>
+        <v>0.9601053826344879</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9898103218848932</v>
+        <v>0.9892269148910641</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>347</v>
@@ -4575,19 +4575,19 @@
         <v>260481</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>256173</v>
+        <v>255861</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>262951</v>
+        <v>263218</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9834329002786814</v>
+        <v>0.9834329002786816</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9671676611936528</v>
+        <v>0.9659894737269178</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9927602667629839</v>
+        <v>0.9937653615274573</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>684</v>
@@ -4596,19 +4596,19 @@
         <v>619453</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>612697</v>
+        <v>612103</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>624866</v>
+        <v>624491</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9808234836907725</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9701260059960337</v>
+        <v>0.9691860778524024</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9893947070090453</v>
+        <v>0.988800884028855</v>
       </c>
     </row>
     <row r="12">
@@ -4700,19 +4700,19 @@
         <v>30436</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>21506</v>
+        <v>22201</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>42319</v>
+        <v>42450</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01827885126755638</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0129162815309768</v>
+        <v>0.01333336922593404</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02541557176091507</v>
+        <v>0.02549421545902455</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>22</v>
@@ -4721,19 +4721,19 @@
         <v>19375</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11729</v>
+        <v>11612</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>32101</v>
+        <v>30954</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02164661969739516</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0131041538614798</v>
+        <v>0.01297346818839233</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03586497080704326</v>
+        <v>0.0345829701494376</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>58</v>
@@ -4742,19 +4742,19 @@
         <v>49810</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>38837</v>
+        <v>38062</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>66608</v>
+        <v>65413</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01945627005996787</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0151699574313796</v>
+        <v>0.0148673715735322</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0260173264414623</v>
+        <v>0.02555089631771095</v>
       </c>
     </row>
     <row r="14">
@@ -4771,19 +4771,19 @@
         <v>1634633</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1622750</v>
+        <v>1622619</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1643563</v>
+        <v>1642868</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9817211487324436</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9745844282390852</v>
+        <v>0.9745057845409756</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9870837184690233</v>
+        <v>0.986666630774066</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1169</v>
@@ -4792,19 +4792,19 @@
         <v>875680</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>862954</v>
+        <v>864101</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>883326</v>
+        <v>883443</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9783533803026048</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9641350291929568</v>
+        <v>0.9654170298505625</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9868958461385203</v>
+        <v>0.9870265318116076</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2706</v>
@@ -4813,19 +4813,19 @@
         <v>2510315</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2493517</v>
+        <v>2494712</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2521288</v>
+        <v>2522063</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9805437299400321</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9739826735585377</v>
+        <v>0.9744491036822888</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9848300425686206</v>
+        <v>0.9851326284264678</v>
       </c>
     </row>
     <row r="15">
